--- a/13_WorkingWithExcel/Inverted.xlsx
+++ b/13_WorkingWithExcel/Inverted.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:S2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -361,7 +361,25 @@
         <v>2</v>
       </c>
       <c r="C1" t="n">
+        <v>3</v>
+      </c>
+      <c r="N1" t="n">
         <v>4</v>
+      </c>
+      <c r="O1" t="n">
+        <v>5</v>
+      </c>
+      <c r="P1" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q1" t="n">
+        <v>7</v>
+      </c>
+      <c r="R1" t="n">
+        <v>8</v>
+      </c>
+      <c r="S1" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="2">
@@ -372,105 +390,25 @@
         <v>4</v>
       </c>
       <c r="C2" t="n">
+        <v>6</v>
+      </c>
+      <c r="N2" t="n">
         <v>8</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>3</v>
-      </c>
-      <c r="B3" t="n">
-        <v>6</v>
-      </c>
-      <c r="C3" t="n">
+      <c r="O2" t="n">
+        <v>10</v>
+      </c>
+      <c r="P2" t="n">
         <v>12</v>
       </c>
-    </row>
-    <row r="4"/>
-    <row r="5"/>
-    <row r="6"/>
-    <row r="7"/>
-    <row r="8"/>
-    <row r="9"/>
-    <row r="10"/>
-    <row r="11"/>
-    <row r="12"/>
-    <row r="13"/>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>4</v>
-      </c>
-      <c r="B14" t="n">
-        <v>8</v>
-      </c>
-      <c r="C14" t="n">
+      <c r="Q2" t="n">
+        <v>14</v>
+      </c>
+      <c r="R2" t="n">
         <v>16</v>
       </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>5</v>
-      </c>
-      <c r="B15" t="n">
-        <v>10</v>
-      </c>
-      <c r="C15" t="n">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>6</v>
-      </c>
-      <c r="B16" t="n">
-        <v>12</v>
-      </c>
-      <c r="C16" t="n">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>7</v>
-      </c>
-      <c r="B17" t="n">
-        <v>14</v>
-      </c>
-      <c r="C17" t="n">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
-        <v>8</v>
-      </c>
-      <c r="B18" t="n">
-        <v>16</v>
-      </c>
-      <c r="C18" t="n">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
-        <v>9</v>
-      </c>
-      <c r="B19" t="n">
+      <c r="S2" t="n">
         <v>18</v>
-      </c>
-      <c r="C19" t="n">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
-        <v>10</v>
-      </c>
-      <c r="B20" t="n">
-        <v>20</v>
-      </c>
-      <c r="C20" t="n">
-        <v>40</v>
       </c>
     </row>
   </sheetData>
